--- a/data/trans_orig/P1401-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1401-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E8F76C4-DF7B-42E5-B971-9D8EFE4C69AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89BFC104-48F5-47B1-848D-F739ACA4670D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B5702463-7919-4CC4-9B4D-4D66ED2BA4C8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9FD7E68E-8C9E-4593-A341-2A9C56C5F637}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="390">
   <si>
     <t>Población con diagnóstico de cáncer en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -88,1090 +88,1126 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,76%</t>
+    <t>1,79%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>4,83%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
   </si>
   <si>
     <t>95,17%</t>
   </si>
   <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
   </si>
   <si>
     <t>96,98%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>98,03%</t>
   </si>
   <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +1619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB2EDB7-641B-4DBB-9821-939D8643C54B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359CE2E1-3E96-4066-8D55-470BEFB65B9E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2190,7 +2226,7 @@
         <v>59</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,10 +2244,10 @@
         <v>29</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>609</v>
@@ -2220,13 +2256,13 @@
         <v>656279</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>1228</v>
@@ -2235,13 +2271,13 @@
         <v>1318276</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,7 +2333,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2309,13 +2345,13 @@
         <v>5501</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2324,13 +2360,13 @@
         <v>3785</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2339,13 +2375,13 @@
         <v>9286</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2396,13 @@
         <v>207117</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>209</v>
@@ -2375,13 +2411,13 @@
         <v>215806</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>401</v>
@@ -2390,13 +2426,13 @@
         <v>422923</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,7 +2488,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2464,13 +2500,13 @@
         <v>4251</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2479,13 +2515,13 @@
         <v>3096</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -2494,13 +2530,13 @@
         <v>7347</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,13 +2551,13 @@
         <v>269730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>265</v>
@@ -2530,13 +2566,13 @@
         <v>275000</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>522</v>
@@ -2545,13 +2581,13 @@
         <v>544730</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,7 +2643,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2619,13 +2655,13 @@
         <v>4965</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -2634,13 +2670,13 @@
         <v>19182</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -2649,13 +2685,13 @@
         <v>24147</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,13 +2706,13 @@
         <v>657823</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H23" s="7">
         <v>619</v>
@@ -2685,13 +2721,13 @@
         <v>674671</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>1232</v>
@@ -2700,13 +2736,13 @@
         <v>1332494</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,7 +2798,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2774,13 +2810,13 @@
         <v>7504</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -2789,13 +2825,13 @@
         <v>13030</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -2804,13 +2840,13 @@
         <v>20534</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,13 +2861,13 @@
         <v>771594</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H26" s="7">
         <v>744</v>
@@ -2840,13 +2876,13 @@
         <v>809548</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M26" s="7">
         <v>1454</v>
@@ -2855,13 +2891,13 @@
         <v>1581142</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2965,13 @@
         <v>39165</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H28" s="7">
         <v>64</v>
@@ -2944,13 +2980,13 @@
         <v>71617</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M28" s="7">
         <v>100</v>
@@ -2959,13 +2995,13 @@
         <v>110782</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +3016,13 @@
         <v>3387614</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H29" s="7">
         <v>3232</v>
@@ -2995,28 +3031,28 @@
         <v>3483481</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="M29" s="7">
         <v>6405</v>
       </c>
       <c r="N29" s="7">
-        <v>6871095</v>
+        <v>6871096</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,7 +3094,7 @@
         <v>6505</v>
       </c>
       <c r="N30" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -3072,7 +3108,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3096,7 +3132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7014708D-AA1A-4664-844F-B1768FA9563F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE76365-D214-4551-A2C7-08E3EF0AC21F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3113,7 +3149,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3220,13 +3256,13 @@
         <v>869</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3235,13 +3271,13 @@
         <v>6864</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -3250,13 +3286,13 @@
         <v>7733</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3307,13 @@
         <v>292892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>270</v>
@@ -3286,13 +3322,13 @@
         <v>281839</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>535</v>
@@ -3301,13 +3337,13 @@
         <v>574731</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,13 +3411,13 @@
         <v>4109</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3390,13 +3426,13 @@
         <v>4479</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3405,13 +3441,13 @@
         <v>8589</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,10 +3462,10 @@
         <v>498466</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>25</v>
@@ -3441,13 +3477,13 @@
         <v>518605</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>951</v>
@@ -3456,13 +3492,13 @@
         <v>1017070</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3566,13 @@
         <v>5281</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -3545,13 +3581,13 @@
         <v>12733</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3560,13 +3596,13 @@
         <v>18014</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3617,13 @@
         <v>313284</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>322</v>
@@ -3596,13 +3632,13 @@
         <v>323576</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="M11" s="7">
         <v>651</v>
@@ -3611,13 +3647,13 @@
         <v>636860</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3721,13 @@
         <v>5626</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3700,13 +3736,13 @@
         <v>11210</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -3715,13 +3751,13 @@
         <v>16836</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3772,13 @@
         <v>364338</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>348</v>
@@ -3751,13 +3787,13 @@
         <v>376073</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>696</v>
@@ -3766,13 +3802,13 @@
         <v>740411</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,7 +3864,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3840,13 +3876,13 @@
         <v>2858</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3855,13 +3891,13 @@
         <v>981</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3870,13 +3906,13 @@
         <v>3839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3927,13 @@
         <v>208363</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="H17" s="7">
         <v>222</v>
@@ -3906,13 +3942,13 @@
         <v>217606</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>431</v>
@@ -3921,13 +3957,13 @@
         <v>425969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,7 +4019,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3995,13 +4031,13 @@
         <v>793</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4010,13 +4046,13 @@
         <v>1287</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4025,13 +4061,13 @@
         <v>2080</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>89</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4082,13 @@
         <v>262330</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H20" s="7">
         <v>262</v>
@@ -4061,13 +4097,13 @@
         <v>271828</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M20" s="7">
         <v>520</v>
@@ -4076,13 +4112,13 @@
         <v>534158</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,7 +4174,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4150,13 +4186,13 @@
         <v>4676</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -4165,13 +4201,13 @@
         <v>15978</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>239</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -4180,13 +4216,13 @@
         <v>20653</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4237,13 @@
         <v>651882</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>242</v>
+        <v>146</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H23" s="7">
         <v>632</v>
@@ -4216,13 +4252,13 @@
         <v>675316</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>245</v>
+        <v>152</v>
       </c>
       <c r="M23" s="7">
         <v>1207</v>
@@ -4231,13 +4267,13 @@
         <v>1327199</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>246</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,7 +4329,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4305,13 +4341,13 @@
         <v>5522</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -4320,13 +4356,13 @@
         <v>17618</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -4335,13 +4371,13 @@
         <v>23140</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>251</v>
+        <v>69</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4392,13 @@
         <v>773061</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="H26" s="7">
         <v>739</v>
@@ -4371,13 +4407,13 @@
         <v>808549</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="M26" s="7">
         <v>1484</v>
@@ -4386,13 +4422,13 @@
         <v>1581610</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>258</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4496,13 @@
         <v>29734</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>129</v>
+        <v>255</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c r="H28" s="7">
         <v>63</v>
@@ -4475,13 +4511,13 @@
         <v>71150</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>261</v>
+        <v>142</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M28" s="7">
         <v>94</v>
@@ -4490,13 +4526,13 @@
         <v>100884</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4547,13 @@
         <v>3364616</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>137</v>
+        <v>259</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>264</v>
+        <v>135</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>265</v>
+        <v>48</v>
       </c>
       <c r="H29" s="7">
         <v>3275</v>
@@ -4526,13 +4562,13 @@
         <v>3473392</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="M29" s="7">
         <v>6475</v>
@@ -4541,13 +4577,13 @@
         <v>6838008</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,7 +4639,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4627,7 +4663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6257BB-4B4C-4B2C-A502-FC74F94B26C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1B66EA-871E-42DE-9AB6-E61CD23D3BA5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4644,7 +4680,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4751,13 +4787,13 @@
         <v>2431</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4766,13 +4802,13 @@
         <v>3453</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>59</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -4781,13 +4817,13 @@
         <v>5884</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>186</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4838,13 @@
         <v>257867</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H5" s="7">
         <v>530</v>
@@ -4817,13 +4853,13 @@
         <v>267950</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>66</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M5" s="7">
         <v>857</v>
@@ -4832,13 +4868,13 @@
         <v>525816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,13 +4942,13 @@
         <v>10862</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>275</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4921,13 +4957,13 @@
         <v>8599</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>277</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -4936,13 +4972,13 @@
         <v>19461</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,13 +4993,13 @@
         <v>506424</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>704</v>
@@ -4972,13 +5008,13 @@
         <v>545242</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>1075</v>
@@ -4987,13 +5023,13 @@
         <v>1051665</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>168</v>
+        <v>287</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>288</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,13 +5097,13 @@
         <v>6894</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>290</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -5076,13 +5112,13 @@
         <v>10109</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>294</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -5091,13 +5127,13 @@
         <v>17003</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,13 +5148,13 @@
         <v>315346</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>299</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H11" s="7">
         <v>519</v>
@@ -5127,13 +5163,13 @@
         <v>363175</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>304</v>
       </c>
       <c r="M11" s="7">
         <v>869</v>
@@ -5142,13 +5178,13 @@
         <v>678521</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,10 +5255,10 @@
         <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>302</v>
+        <v>169</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -5231,13 +5267,13 @@
         <v>11527</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>305</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -5246,13 +5282,13 @@
         <v>17770</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,10 +5306,10 @@
         <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>311</v>
+        <v>174</v>
       </c>
       <c r="H14" s="7">
         <v>576</v>
@@ -5282,13 +5318,13 @@
         <v>417029</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>314</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>859</v>
@@ -5297,13 +5333,13 @@
         <v>733026</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,7 +5395,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5371,13 +5407,13 @@
         <v>4831</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5386,13 +5422,13 @@
         <v>8094</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -5401,13 +5437,13 @@
         <v>12925</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>326</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>327</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,13 +5458,13 @@
         <v>191917</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H17" s="7">
         <v>470</v>
@@ -5437,13 +5473,13 @@
         <v>222978</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M17" s="7">
         <v>741</v>
@@ -5452,13 +5488,13 @@
         <v>414895</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>335</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,7 +5550,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5526,13 +5562,13 @@
         <v>8219</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -5541,13 +5577,13 @@
         <v>6091</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -5556,13 +5592,13 @@
         <v>14309</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,13 +5613,13 @@
         <v>269004</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="H20" s="7">
         <v>447</v>
@@ -5592,13 +5628,13 @@
         <v>268814</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M20" s="7">
         <v>803</v>
@@ -5607,13 +5643,13 @@
         <v>537818</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>47</v>
+        <v>347</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,7 +5705,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5681,13 +5717,13 @@
         <v>17542</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>348</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -5696,13 +5732,13 @@
         <v>11388</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>344</v>
+        <v>214</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -5711,13 +5747,13 @@
         <v>28930</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,13 +5768,13 @@
         <v>606096</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>356</v>
       </c>
       <c r="H23" s="7">
         <v>937</v>
@@ -5747,13 +5783,13 @@
         <v>789840</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>351</v>
+        <v>221</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M23" s="7">
         <v>1511</v>
@@ -5762,13 +5798,13 @@
         <v>1395936</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,7 +5860,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5836,13 +5872,13 @@
         <v>16953</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>186</v>
+        <v>362</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -5851,13 +5887,13 @@
         <v>26818</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>291</v>
+        <v>367</v>
       </c>
       <c r="M25" s="7">
         <v>58</v>
@@ -5866,13 +5902,13 @@
         <v>43771</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>127</v>
+        <v>369</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,13 +5923,13 @@
         <v>841770</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>194</v>
+        <v>371</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="H26" s="7">
         <v>1023</v>
@@ -5902,13 +5938,13 @@
         <v>838854</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>375</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="M26" s="7">
         <v>1764</v>
@@ -5917,13 +5953,13 @@
         <v>1680624</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +6027,13 @@
         <v>73975</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>322</v>
+        <v>380</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>366</v>
+        <v>279</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>304</v>
+        <v>381</v>
       </c>
       <c r="H28" s="7">
         <v>148</v>
@@ -6006,13 +6042,13 @@
         <v>86078</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>369</v>
+        <v>293</v>
       </c>
       <c r="M28" s="7">
         <v>243</v>
@@ -6021,13 +6057,13 @@
         <v>160053</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>370</v>
+        <v>214</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>371</v>
+        <v>34</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>274</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,13 +6078,13 @@
         <v>3304419</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>330</v>
+        <v>385</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>312</v>
+        <v>386</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="H29" s="7">
         <v>5206</v>
@@ -6057,28 +6093,28 @@
         <v>3713882</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="M29" s="7">
         <v>8479</v>
       </c>
       <c r="N29" s="7">
-        <v>7018302</v>
+        <v>7018301</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>376</v>
+        <v>221</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>278</v>
+        <v>389</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>377</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,7 +6156,7 @@
         <v>8722</v>
       </c>
       <c r="N30" s="7">
-        <v>7178355</v>
+        <v>7178354</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -6134,7 +6170,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1401-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1401-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89BFC104-48F5-47B1-848D-F739ACA4670D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D966FAB0-C851-478D-AF59-EE9E22A4FE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9FD7E68E-8C9E-4593-A341-2A9C56C5F637}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9AC5C782-839C-49DC-9E4D-7553D9BD7FC5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="374">
   <si>
     <t>Población con diagnóstico de cáncer en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -88,1032 +88,990 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,79%</t>
+    <t>1,77%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
   </si>
   <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>99,53%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>97,77%</t>
   </si>
   <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
     <t>99,26%</t>
   </si>
   <si>
@@ -1147,9 +1105,6 @@
     <t>2,54%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
     <t>3,33%</t>
   </si>
   <si>
@@ -1175,9 +1130,6 @@
   </si>
   <si>
     <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
   </si>
   <si>
     <t>2,19%</t>
@@ -1619,7 +1571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359CE2E1-3E96-4066-8D55-470BEFB65B9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD0DC35-FB30-4A02-952D-8640319AE234}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2053,10 +2005,10 @@
         <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2065,13 +2017,13 @@
         <v>12449</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,13 +2038,13 @@
         <v>317768</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>311</v>
@@ -2101,13 +2053,13 @@
         <v>334849</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>625</v>
@@ -2116,13 +2068,13 @@
         <v>652617</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,7 +2130,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2193,10 +2145,10 @@
         <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -2205,13 +2157,13 @@
         <v>19917</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -2220,13 +2172,13 @@
         <v>26640</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,10 +2196,10 @@
         <v>29</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>609</v>
@@ -2256,13 +2208,13 @@
         <v>656279</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>1228</v>
@@ -2271,10 +2223,10 @@
         <v>1318276</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>66</v>
@@ -2348,10 +2300,10 @@
         <v>68</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2360,13 +2312,13 @@
         <v>3785</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2375,13 +2327,13 @@
         <v>9286</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,13 +2348,13 @@
         <v>207117</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="H17" s="7">
         <v>209</v>
@@ -2411,13 +2363,13 @@
         <v>215806</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>401</v>
@@ -2426,13 +2378,13 @@
         <v>422923</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,7 +2440,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2500,13 +2452,13 @@
         <v>4251</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2515,13 +2467,13 @@
         <v>3096</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -2530,13 +2482,13 @@
         <v>7347</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,13 +2503,13 @@
         <v>269730</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>265</v>
@@ -2566,13 +2518,13 @@
         <v>275000</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>522</v>
@@ -2581,13 +2533,13 @@
         <v>544730</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,7 +2595,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2655,13 +2607,13 @@
         <v>4965</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -2670,13 +2622,13 @@
         <v>19182</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -2685,13 +2637,13 @@
         <v>24147</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2658,13 @@
         <v>657823</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H23" s="7">
         <v>619</v>
@@ -2721,13 +2673,13 @@
         <v>674671</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>1232</v>
@@ -2736,13 +2688,13 @@
         <v>1332494</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,7 +2750,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2810,13 +2762,13 @@
         <v>7504</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -2825,13 +2777,13 @@
         <v>13030</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -2840,13 +2792,13 @@
         <v>20534</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,13 +2813,13 @@
         <v>771594</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H26" s="7">
         <v>744</v>
@@ -2876,13 +2828,13 @@
         <v>809548</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M26" s="7">
         <v>1454</v>
@@ -2891,13 +2843,13 @@
         <v>1581142</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,13 +2917,13 @@
         <v>39165</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H28" s="7">
         <v>64</v>
@@ -2980,13 +2932,13 @@
         <v>71617</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M28" s="7">
         <v>100</v>
@@ -2995,13 +2947,13 @@
         <v>110782</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +2968,13 @@
         <v>3387614</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H29" s="7">
         <v>3232</v>
@@ -3031,28 +2983,28 @@
         <v>3483481</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="M29" s="7">
         <v>6405</v>
       </c>
       <c r="N29" s="7">
-        <v>6871096</v>
+        <v>6871095</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,7 +3046,7 @@
         <v>6505</v>
       </c>
       <c r="N30" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -3108,7 +3060,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3132,7 +3084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE76365-D214-4551-A2C7-08E3EF0AC21F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F93F64-D143-42C5-AEAE-5B4A13266355}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3149,7 +3101,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3256,13 +3208,13 @@
         <v>869</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3271,13 +3223,13 @@
         <v>6864</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -3286,13 +3238,13 @@
         <v>7733</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,13 +3259,13 @@
         <v>292892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H5" s="7">
         <v>270</v>
@@ -3322,13 +3274,13 @@
         <v>281839</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M5" s="7">
         <v>535</v>
@@ -3337,13 +3289,13 @@
         <v>574731</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3363,13 @@
         <v>4109</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3426,13 +3378,13 @@
         <v>4479</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3441,13 +3393,13 @@
         <v>8589</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,13 +3414,13 @@
         <v>498466</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>480</v>
@@ -3483,7 +3435,7 @@
         <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>951</v>
@@ -3492,13 +3444,13 @@
         <v>1017070</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,13 +3518,13 @@
         <v>5281</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -3581,13 +3533,13 @@
         <v>12733</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3596,13 +3548,13 @@
         <v>18014</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3569,13 @@
         <v>313284</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H11" s="7">
         <v>322</v>
@@ -3632,13 +3584,13 @@
         <v>323576</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="M11" s="7">
         <v>651</v>
@@ -3647,13 +3599,13 @@
         <v>636860</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,7 +3661,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3721,13 +3673,13 @@
         <v>5626</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3736,13 +3688,13 @@
         <v>11210</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -3751,13 +3703,13 @@
         <v>16836</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,13 +3724,13 @@
         <v>364338</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>348</v>
@@ -3787,13 +3739,13 @@
         <v>376073</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="M14" s="7">
         <v>696</v>
@@ -3802,13 +3754,13 @@
         <v>740411</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3828,13 @@
         <v>2858</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3891,13 +3843,13 @@
         <v>981</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3906,13 +3858,13 @@
         <v>3839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,13 +3879,13 @@
         <v>208363</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="H17" s="7">
         <v>222</v>
@@ -3942,13 +3894,13 @@
         <v>217606</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>431</v>
@@ -3957,13 +3909,13 @@
         <v>425969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,7 +3971,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4031,13 +3983,13 @@
         <v>793</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4046,13 +3998,13 @@
         <v>1287</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4061,13 +4013,13 @@
         <v>2080</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4034,13 @@
         <v>262330</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H20" s="7">
         <v>262</v>
@@ -4097,13 +4049,13 @@
         <v>271828</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M20" s="7">
         <v>520</v>
@@ -4112,13 +4064,13 @@
         <v>534158</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>232</v>
+        <v>66</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,7 +4126,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4186,13 +4138,13 @@
         <v>4676</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -4201,13 +4153,13 @@
         <v>15978</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -4216,13 +4168,13 @@
         <v>20653</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4189,13 @@
         <v>651882</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H23" s="7">
         <v>632</v>
@@ -4252,13 +4204,13 @@
         <v>675316</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>1207</v>
@@ -4267,13 +4219,13 @@
         <v>1327199</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,7 +4281,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4341,13 +4293,13 @@
         <v>5522</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>244</v>
+        <v>124</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -4356,13 +4308,13 @@
         <v>17618</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -4371,13 +4323,13 @@
         <v>23140</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4344,13 @@
         <v>773061</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H26" s="7">
         <v>739</v>
@@ -4407,13 +4359,13 @@
         <v>808549</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>50</v>
+        <v>248</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M26" s="7">
         <v>1484</v>
@@ -4422,13 +4374,13 @@
         <v>1581610</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>78</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,13 +4448,13 @@
         <v>29734</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>38</v>
+        <v>254</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="H28" s="7">
         <v>63</v>
@@ -4511,13 +4463,13 @@
         <v>71150</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M28" s="7">
         <v>94</v>
@@ -4526,13 +4478,13 @@
         <v>100884</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,10 +4502,10 @@
         <v>259</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="H29" s="7">
         <v>3275</v>
@@ -4562,13 +4514,13 @@
         <v>3473392</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M29" s="7">
         <v>6475</v>
@@ -4577,13 +4529,13 @@
         <v>6838008</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>24</v>
+        <v>263</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,7 +4591,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4663,7 +4615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1B66EA-871E-42DE-9AB6-E61CD23D3BA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EBBBEF-E5DD-417C-8B36-839DFDACD3E9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4680,7 +4632,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4787,13 +4739,13 @@
         <v>2431</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>268</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4802,13 +4754,13 @@
         <v>3453</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>267</v>
+        <v>139</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -4817,10 +4769,10 @@
         <v>5884</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>34</v>
@@ -4838,13 +4790,13 @@
         <v>257867</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>272</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H5" s="7">
         <v>530</v>
@@ -4856,10 +4808,10 @@
         <v>66</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>271</v>
+        <v>145</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M5" s="7">
         <v>857</v>
@@ -4868,13 +4820,13 @@
         <v>525816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,13 +4894,13 @@
         <v>10862</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>274</v>
+        <v>169</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4957,13 +4909,13 @@
         <v>8599</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>277</v>
+        <v>136</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>278</v>
+        <v>91</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -4972,13 +4924,13 @@
         <v>19461</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,13 +4945,13 @@
         <v>506424</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H8" s="7">
         <v>704</v>
@@ -5008,13 +4960,13 @@
         <v>545242</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>285</v>
+        <v>99</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="M8" s="7">
         <v>1075</v>
@@ -5023,13 +4975,13 @@
         <v>1051665</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5049,13 @@
         <v>6894</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -5112,13 +5064,13 @@
         <v>10109</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>294</v>
+        <v>138</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -5127,13 +5079,13 @@
         <v>17003</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>296</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5100,13 @@
         <v>315346</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H11" s="7">
         <v>519</v>
@@ -5163,13 +5115,13 @@
         <v>363175</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>304</v>
+        <v>146</v>
       </c>
       <c r="M11" s="7">
         <v>869</v>
@@ -5178,13 +5130,13 @@
         <v>678521</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>305</v>
+        <v>219</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,7 +5192,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5255,10 +5207,10 @@
         <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -5267,13 +5219,13 @@
         <v>11527</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>309</v>
+        <v>126</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -5282,13 +5234,13 @@
         <v>17770</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,10 +5255,10 @@
         <v>315996</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>174</v>
@@ -5318,13 +5270,13 @@
         <v>417029</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>315</v>
+        <v>132</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="M14" s="7">
         <v>859</v>
@@ -5333,13 +5285,13 @@
         <v>733026</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>319</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,13 +5359,13 @@
         <v>4831</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5422,13 +5374,13 @@
         <v>8094</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -5437,13 +5389,13 @@
         <v>12925</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,13 +5410,13 @@
         <v>191917</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="H17" s="7">
         <v>470</v>
@@ -5473,13 +5425,13 @@
         <v>222978</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>334</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>741</v>
@@ -5488,13 +5440,13 @@
         <v>414895</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,7 +5502,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5562,13 +5514,13 @@
         <v>8219</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>338</v>
+        <v>88</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -5577,13 +5529,13 @@
         <v>6091</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -5595,10 +5547,10 @@
         <v>68</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,13 +5565,13 @@
         <v>269004</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>343</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="H20" s="7">
         <v>447</v>
@@ -5628,13 +5580,13 @@
         <v>268814</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>262</v>
+        <v>332</v>
       </c>
       <c r="M20" s="7">
         <v>803</v>
@@ -5643,13 +5595,13 @@
         <v>537818</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,7 +5657,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5717,13 +5669,13 @@
         <v>17542</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>348</v>
+        <v>258</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -5732,13 +5684,13 @@
         <v>11388</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>214</v>
+        <v>337</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -5747,13 +5699,13 @@
         <v>28930</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,13 +5720,13 @@
         <v>606096</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>356</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>937</v>
@@ -5783,13 +5735,13 @@
         <v>789840</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>221</v>
+        <v>343</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="M23" s="7">
         <v>1511</v>
@@ -5798,13 +5750,13 @@
         <v>1395936</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,7 +5812,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5872,13 +5824,13 @@
         <v>16953</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -5887,13 +5839,13 @@
         <v>26818</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="M25" s="7">
         <v>58</v>
@@ -5902,13 +5854,13 @@
         <v>43771</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>369</v>
+        <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5923,13 +5875,13 @@
         <v>841770</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="H26" s="7">
         <v>1023</v>
@@ -5938,13 +5890,13 @@
         <v>838854</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="M26" s="7">
         <v>1764</v>
@@ -5953,13 +5905,13 @@
         <v>1680624</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>379</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +5979,13 @@
         <v>73975</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="H28" s="7">
         <v>148</v>
@@ -6042,13 +5994,13 @@
         <v>86078</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M28" s="7">
         <v>243</v>
@@ -6057,13 +6009,13 @@
         <v>160053</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>214</v>
+        <v>337</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,13 +6030,13 @@
         <v>3304419</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H29" s="7">
         <v>5206</v>
@@ -6093,13 +6045,13 @@
         <v>3713882</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="M29" s="7">
         <v>8479</v>
@@ -6108,13 +6060,13 @@
         <v>7018301</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>221</v>
+        <v>343</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,7 +6122,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1401-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1401-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D966FAB0-C851-478D-AF59-EE9E22A4FE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C836AB00-4D24-4DC1-9946-8C7CAC177EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9AC5C782-839C-49DC-9E4D-7553D9BD7FC5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{52BA0290-363B-40A5-9F4F-12BC7F29168A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="378">
   <si>
     <t>Población con diagnóstico de cáncer en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -88,1078 +88,1090 @@
     <t>0,2%</t>
   </si>
   <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>96,84%</t>
   </si>
   <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
   </si>
   <si>
     <t>98,73%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
   </si>
   <si>
     <t>3,88%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
   </si>
   <si>
     <t>97,33%</t>
   </si>
   <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>98,11%</t>
   </si>
   <si>
     <t>97,77%</t>
   </si>
   <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>98,05%</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD0DC35-FB30-4A02-952D-8640319AE234}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCE546A-9668-45BB-9E94-5825E172716D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2005,10 +2017,10 @@
         <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2017,13 +2029,13 @@
         <v>12449</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,13 +2050,13 @@
         <v>317768</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>311</v>
@@ -2053,13 +2065,13 @@
         <v>334849</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>625</v>
@@ -2068,13 +2080,13 @@
         <v>652617</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,7 +2142,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2145,10 +2157,10 @@
         <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -2157,13 +2169,13 @@
         <v>19917</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -2172,13 +2184,13 @@
         <v>26640</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,10 +2208,10 @@
         <v>29</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>609</v>
@@ -2208,13 +2220,13 @@
         <v>656279</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>1228</v>
@@ -2223,13 +2235,13 @@
         <v>1318276</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,7 +2297,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2297,13 +2309,13 @@
         <v>5501</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2312,13 +2324,13 @@
         <v>3785</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2327,13 +2339,13 @@
         <v>9286</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2360,13 @@
         <v>207117</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>209</v>
@@ -2363,13 +2375,13 @@
         <v>215806</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>401</v>
@@ -2378,13 +2390,13 @@
         <v>422923</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,7 +2452,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2452,13 +2464,13 @@
         <v>4251</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2467,13 +2479,13 @@
         <v>3096</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -2482,13 +2494,13 @@
         <v>7347</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,13 +2515,13 @@
         <v>269730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>265</v>
@@ -2518,13 +2530,13 @@
         <v>275000</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>522</v>
@@ -2533,13 +2545,13 @@
         <v>544730</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,7 +2607,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2607,13 +2619,13 @@
         <v>4965</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -2622,13 +2634,13 @@
         <v>19182</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -2637,13 +2649,13 @@
         <v>24147</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2670,13 @@
         <v>657823</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>619</v>
@@ -2673,13 +2685,13 @@
         <v>674671</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>1232</v>
@@ -2688,13 +2700,13 @@
         <v>1332494</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,7 +2762,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2762,13 +2774,13 @@
         <v>7504</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -2777,13 +2789,13 @@
         <v>13030</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -2792,13 +2804,13 @@
         <v>20534</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2825,13 @@
         <v>771594</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H26" s="7">
         <v>744</v>
@@ -2828,13 +2840,13 @@
         <v>809548</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>1454</v>
@@ -2843,13 +2855,13 @@
         <v>1581142</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2929,13 @@
         <v>39165</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7">
         <v>64</v>
@@ -2932,13 +2944,13 @@
         <v>71617</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="M28" s="7">
         <v>100</v>
@@ -2947,13 +2959,13 @@
         <v>110782</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +2980,13 @@
         <v>3387614</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H29" s="7">
         <v>3232</v>
@@ -2983,13 +2995,13 @@
         <v>3483481</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="M29" s="7">
         <v>6405</v>
@@ -2998,13 +3010,13 @@
         <v>6871095</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,7 +3072,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3084,7 +3096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F93F64-D143-42C5-AEAE-5B4A13266355}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCD8BBC-74EF-40E2-B34B-965CE9EDC558}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3101,7 +3113,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3208,13 +3220,13 @@
         <v>869</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3223,13 +3235,13 @@
         <v>6864</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -3238,13 +3250,13 @@
         <v>7733</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3271,13 @@
         <v>292892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>270</v>
@@ -3274,13 +3286,13 @@
         <v>281839</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>535</v>
@@ -3289,13 +3301,13 @@
         <v>574731</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,13 +3375,13 @@
         <v>4109</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3378,13 +3390,13 @@
         <v>4479</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3393,13 +3405,13 @@
         <v>8589</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3426,13 @@
         <v>498466</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="H8" s="7">
         <v>480</v>
@@ -3429,13 +3441,13 @@
         <v>518605</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="M8" s="7">
         <v>951</v>
@@ -3444,13 +3456,13 @@
         <v>1017070</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,13 +3530,13 @@
         <v>5281</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -3533,13 +3545,13 @@
         <v>12733</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3548,13 +3560,13 @@
         <v>18014</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,13 +3581,13 @@
         <v>313284</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>322</v>
@@ -3584,13 +3596,13 @@
         <v>323576</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>651</v>
@@ -3599,13 +3611,13 @@
         <v>636860</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,7 +3673,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3673,13 +3685,13 @@
         <v>5626</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3688,13 +3700,13 @@
         <v>11210</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -3703,13 +3715,13 @@
         <v>16836</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3736,13 @@
         <v>364338</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H14" s="7">
         <v>348</v>
@@ -3739,13 +3751,13 @@
         <v>376073</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>209</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>696</v>
@@ -3754,13 +3766,13 @@
         <v>740411</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,7 +3828,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3828,13 +3840,13 @@
         <v>2858</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3843,13 +3855,13 @@
         <v>981</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3858,13 +3870,13 @@
         <v>3839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,10 +3891,10 @@
         <v>208363</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>28</v>
@@ -3894,13 +3906,13 @@
         <v>217606</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
         <v>431</v>
@@ -3909,13 +3921,13 @@
         <v>425969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,7 +3983,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3983,13 +3995,13 @@
         <v>793</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3998,13 +4010,13 @@
         <v>1287</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4013,13 +4025,13 @@
         <v>2080</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4046,13 @@
         <v>262330</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="H20" s="7">
         <v>262</v>
@@ -4049,13 +4061,13 @@
         <v>271828</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="M20" s="7">
         <v>520</v>
@@ -4064,13 +4076,13 @@
         <v>534158</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,7 +4138,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4138,13 +4150,13 @@
         <v>4676</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -4153,13 +4165,13 @@
         <v>15978</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -4168,13 +4180,13 @@
         <v>20653</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4201,13 @@
         <v>651882</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="H23" s="7">
         <v>632</v>
@@ -4204,13 +4216,13 @@
         <v>675316</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="M23" s="7">
         <v>1207</v>
@@ -4219,13 +4231,13 @@
         <v>1327199</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>128</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,7 +4293,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4293,13 +4305,13 @@
         <v>5522</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>124</v>
+        <v>247</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -4308,13 +4320,13 @@
         <v>17618</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -4323,13 +4335,13 @@
         <v>23140</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,13 +4356,13 @@
         <v>773061</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="H26" s="7">
         <v>739</v>
@@ -4359,13 +4371,13 @@
         <v>808549</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="M26" s="7">
         <v>1484</v>
@@ -4374,13 +4386,13 @@
         <v>1581610</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4460,13 @@
         <v>29734</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>253</v>
+        <v>129</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>17</v>
+        <v>260</v>
       </c>
       <c r="H28" s="7">
         <v>63</v>
@@ -4463,13 +4475,13 @@
         <v>71150</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="M28" s="7">
         <v>94</v>
@@ -4478,13 +4490,13 @@
         <v>100884</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>258</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,13 +4511,13 @@
         <v>3364616</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>259</v>
+        <v>137</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H29" s="7">
         <v>3275</v>
@@ -4514,13 +4526,13 @@
         <v>3473392</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>146</v>
+        <v>267</v>
       </c>
       <c r="M29" s="7">
         <v>6475</v>
@@ -4529,13 +4541,13 @@
         <v>6838008</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>263</v>
+        <v>121</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,7 +4603,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4615,7 +4627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EBBBEF-E5DD-417C-8B36-839DFDACD3E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD21FCE2-9488-440A-90B8-C0AAFC36EE6D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4632,7 +4644,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4739,13 +4751,13 @@
         <v>2431</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4754,13 +4766,13 @@
         <v>3453</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>57</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -4769,13 +4781,13 @@
         <v>5884</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,13 +4802,13 @@
         <v>257867</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>530</v>
@@ -4805,13 +4817,13 @@
         <v>267950</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>66</v>
+        <v>277</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>145</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>857</v>
@@ -4820,13 +4832,13 @@
         <v>525816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>275</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,13 +4906,13 @@
         <v>10862</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>280</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4909,13 +4921,13 @@
         <v>8599</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>91</v>
+        <v>282</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -4924,13 +4936,13 @@
         <v>19461</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>278</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,13 +4957,13 @@
         <v>506424</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>175</v>
+        <v>284</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>282</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>704</v>
@@ -4960,13 +4972,13 @@
         <v>545242</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>99</v>
+        <v>286</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>1075</v>
@@ -4975,13 +4987,13 @@
         <v>1051665</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>283</v>
+        <v>168</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>284</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +5061,13 @@
         <v>6894</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -5064,13 +5076,13 @@
         <v>10109</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -5079,13 +5091,13 @@
         <v>17003</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,13 +5112,13 @@
         <v>315346</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>293</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H11" s="7">
         <v>519</v>
@@ -5115,13 +5127,13 @@
         <v>363175</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>869</v>
@@ -5130,13 +5142,13 @@
         <v>678521</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,7 +5204,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5207,10 +5219,10 @@
         <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>302</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -5219,13 +5231,13 @@
         <v>11527</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>126</v>
+        <v>304</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>104</v>
+        <v>305</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -5234,13 +5246,13 @@
         <v>17770</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>308</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,13 +5267,13 @@
         <v>315996</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>174</v>
+        <v>311</v>
       </c>
       <c r="H14" s="7">
         <v>576</v>
@@ -5270,13 +5282,13 @@
         <v>417029</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>112</v>
+        <v>314</v>
       </c>
       <c r="M14" s="7">
         <v>859</v>
@@ -5285,13 +5297,13 @@
         <v>733026</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,7 +5359,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5359,13 +5371,13 @@
         <v>4831</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5374,13 +5386,13 @@
         <v>8094</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -5389,13 +5401,13 @@
         <v>12925</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>313</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>314</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,13 +5422,13 @@
         <v>191917</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="H17" s="7">
         <v>470</v>
@@ -5425,13 +5437,13 @@
         <v>222978</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>330</v>
       </c>
       <c r="M17" s="7">
         <v>741</v>
@@ -5440,13 +5452,13 @@
         <v>414895</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>321</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,7 +5514,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5514,13 +5526,13 @@
         <v>8219</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>332</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -5529,13 +5541,13 @@
         <v>6091</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -5544,13 +5556,13 @@
         <v>14309</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>328</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,13 +5577,13 @@
         <v>269004</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>336</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="H20" s="7">
         <v>447</v>
@@ -5580,13 +5592,13 @@
         <v>268814</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
         <v>803</v>
@@ -5595,13 +5607,13 @@
         <v>537818</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>333</v>
+        <v>47</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,7 +5669,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5669,13 +5681,13 @@
         <v>17542</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>258</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -5684,13 +5696,13 @@
         <v>11388</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -5699,13 +5711,13 @@
         <v>28930</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5720,13 +5732,13 @@
         <v>606096</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>284</v>
+        <v>348</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>937</v>
@@ -5735,13 +5747,13 @@
         <v>789840</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="M23" s="7">
         <v>1511</v>
@@ -5750,13 +5762,13 @@
         <v>1395936</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,7 +5824,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5824,13 +5836,13 @@
         <v>16953</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>348</v>
+        <v>186</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -5839,13 +5851,13 @@
         <v>26818</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>353</v>
+        <v>291</v>
       </c>
       <c r="M25" s="7">
         <v>58</v>
@@ -5854,13 +5866,13 @@
         <v>43771</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,13 +5887,13 @@
         <v>841770</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>356</v>
+        <v>194</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H26" s="7">
         <v>1023</v>
@@ -5890,13 +5902,13 @@
         <v>838854</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="M26" s="7">
         <v>1764</v>
@@ -5905,13 +5917,13 @@
         <v>1680624</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5991,13 @@
         <v>73975</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>278</v>
+        <v>366</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>365</v>
+        <v>304</v>
       </c>
       <c r="H28" s="7">
         <v>148</v>
@@ -5994,13 +6006,13 @@
         <v>86078</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>289</v>
+        <v>369</v>
       </c>
       <c r="M28" s="7">
         <v>243</v>
@@ -6009,13 +6021,13 @@
         <v>160053</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>34</v>
+        <v>371</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>368</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,13 +6042,13 @@
         <v>3304419</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>283</v>
+        <v>372</v>
       </c>
       <c r="H29" s="7">
         <v>5206</v>
@@ -6045,28 +6057,28 @@
         <v>3713882</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>296</v>
+        <v>374</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M29" s="7">
         <v>8479</v>
       </c>
       <c r="N29" s="7">
-        <v>7018301</v>
+        <v>7018302</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>373</v>
+        <v>278</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>42</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,7 +6120,7 @@
         <v>8722</v>
       </c>
       <c r="N30" s="7">
-        <v>7178354</v>
+        <v>7178355</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -6122,7 +6134,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1401-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1401-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C836AB00-4D24-4DC1-9946-8C7CAC177EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D13711CD-A667-48D4-B820-EA7E4DAB763E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{52BA0290-363B-40A5-9F4F-12BC7F29168A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7F9698C5-6E54-4E54-AE08-0B6F9AAC200B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="383">
   <si>
     <t>Población con diagnóstico de cáncer en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -73,12 +73,66 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -136,9 +190,6 @@
     <t>99,59%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -199,52 +250,58 @@
     <t>Granada</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -487,9 +544,6 @@
     <t>1,31%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
     <t>98,86%</t>
   </si>
   <si>
@@ -511,9 +565,6 @@
     <t>98,41%</t>
   </si>
   <si>
-    <t>98,08%</t>
-  </si>
-  <si>
     <t>98,69%</t>
   </si>
   <si>
@@ -823,9 +874,6 @@
     <t>1,25%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
     <t>2,55%</t>
   </si>
   <si>
@@ -841,337 +889,304 @@
     <t>97,45%</t>
   </si>
   <si>
-    <t>98,49%</t>
-  </si>
-  <si>
     <t>98,8%</t>
   </si>
   <si>
     <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>97,38%</t>
   </si>
   <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
   </si>
   <si>
     <t>97,54%</t>
   </si>
   <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
     <t>97,46%</t>
   </si>
   <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +1598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCE546A-9668-45BB-9E94-5825E172716D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAB1BAA-7309-4B6C-A7F7-663855A79298}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1701,88 +1716,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3708</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>8277</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="7">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>11985</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="D5" s="7">
+        <v>291030</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="I5" s="7">
+        <v>278968</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>527</v>
+      </c>
+      <c r="N5" s="7">
+        <v>569998</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1791,48 +1818,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1844,13 +1877,13 @@
         <v>3942</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -1859,13 +1892,13 @@
         <v>6437</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -1874,19 +1907,19 @@
         <v>10379</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>468</v>
@@ -1895,13 +1928,13 @@
         <v>501585</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>475</v>
@@ -1910,13 +1943,13 @@
         <v>517328</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>943</v>
@@ -1925,13 +1958,13 @@
         <v>1018913</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,13 +1979,13 @@
         <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>480</v>
@@ -1961,13 +1994,13 @@
         <v>523765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>952</v>
@@ -1976,18 +2009,18 @@
         <v>1029292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1999,13 +2032,13 @@
         <v>6278</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2014,13 +2047,13 @@
         <v>6171</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2029,19 +2062,19 @@
         <v>12449</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>314</v>
@@ -2050,13 +2083,13 @@
         <v>317768</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>311</v>
@@ -2065,13 +2098,13 @@
         <v>334849</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>625</v>
@@ -2080,13 +2113,13 @@
         <v>652617</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,13 +2134,13 @@
         <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2116,13 +2149,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>636</v>
@@ -2131,117 +2164,117 @@
         <v>665066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>6724</v>
+        <v>3016</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>19917</v>
+        <v>11640</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>26640</v>
+        <v>14655</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>619</v>
+        <v>341</v>
       </c>
       <c r="D14" s="7">
-        <v>661996</v>
+        <v>370966</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>609</v>
+        <v>360</v>
       </c>
       <c r="I14" s="7">
-        <v>656279</v>
+        <v>377311</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1228</v>
+        <v>701</v>
       </c>
       <c r="N14" s="7">
-        <v>1318276</v>
+        <v>748278</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,54 +2283,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2309,13 +2342,13 @@
         <v>5501</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2324,13 +2357,13 @@
         <v>3785</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2339,19 +2372,19 @@
         <v>9286</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>192</v>
@@ -2360,13 +2393,13 @@
         <v>207117</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>209</v>
@@ -2375,13 +2408,13 @@
         <v>215806</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>401</v>
@@ -2390,13 +2423,13 @@
         <v>422923</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2444,13 @@
         <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -2426,13 +2459,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -2441,18 +2474,18 @@
         <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2464,13 +2497,13 @@
         <v>4251</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2479,13 +2512,13 @@
         <v>3096</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -2494,19 +2527,19 @@
         <v>7347</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>257</v>
@@ -2515,13 +2548,13 @@
         <v>269730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>265</v>
@@ -2530,13 +2563,13 @@
         <v>275000</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>522</v>
@@ -2545,13 +2578,13 @@
         <v>544730</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,13 +2599,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -2581,13 +2614,13 @@
         <v>278096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -2596,18 +2629,18 @@
         <v>552077</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2619,13 +2652,13 @@
         <v>4965</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -2634,13 +2667,13 @@
         <v>19182</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -2649,19 +2682,19 @@
         <v>24147</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>613</v>
@@ -2670,13 +2703,13 @@
         <v>657823</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>619</v>
@@ -2685,13 +2718,13 @@
         <v>674671</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1232</v>
@@ -2700,13 +2733,13 @@
         <v>1332494</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2754,13 @@
         <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>636</v>
@@ -2736,13 +2769,13 @@
         <v>693853</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1254</v>
@@ -2751,18 +2784,18 @@
         <v>1356641</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2774,13 +2807,13 @@
         <v>7504</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -2789,13 +2822,13 @@
         <v>13030</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -2804,19 +2837,19 @@
         <v>20534</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>710</v>
@@ -2825,13 +2858,13 @@
         <v>771594</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>744</v>
@@ -2840,13 +2873,13 @@
         <v>809548</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>1454</v>
@@ -2855,13 +2888,13 @@
         <v>1581142</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2909,13 @@
         <v>779098</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>756</v>
@@ -2891,13 +2924,13 @@
         <v>822578</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1473</v>
@@ -2906,13 +2939,13 @@
         <v>1601676</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2962,13 @@
         <v>39165</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>64</v>
@@ -2944,13 +2977,13 @@
         <v>71617</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>100</v>
@@ -2959,19 +2992,19 @@
         <v>110782</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3173</v>
@@ -2980,13 +3013,13 @@
         <v>3387614</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="H29" s="7">
         <v>3232</v>
@@ -2995,13 +3028,13 @@
         <v>3483481</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="M29" s="7">
         <v>6405</v>
@@ -3010,13 +3043,13 @@
         <v>6871095</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3064,13 @@
         <v>3426779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3296</v>
@@ -3046,13 +3079,13 @@
         <v>3555098</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6505</v>
@@ -3061,18 +3094,18 @@
         <v>6981877</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3096,7 +3129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCD8BBC-74EF-40E2-B34B-965CE9EDC558}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B403FEE4-2A76-4363-A33D-5601B718EF7F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3113,7 +3146,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3220,13 +3253,13 @@
         <v>869</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3235,13 +3268,13 @@
         <v>6864</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -3250,19 +3283,19 @@
         <v>7733</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>265</v>
@@ -3271,13 +3304,13 @@
         <v>292892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
         <v>270</v>
@@ -3286,13 +3319,13 @@
         <v>281839</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="M5" s="7">
         <v>535</v>
@@ -3301,13 +3334,13 @@
         <v>574731</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3355,13 @@
         <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -3337,13 +3370,13 @@
         <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>543</v>
@@ -3352,18 +3385,18 @@
         <v>582464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3375,13 +3408,13 @@
         <v>4109</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3390,13 +3423,13 @@
         <v>4479</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3405,19 +3438,19 @@
         <v>8589</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>471</v>
@@ -3426,13 +3459,13 @@
         <v>498466</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>480</v>
@@ -3441,13 +3474,13 @@
         <v>518605</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>951</v>
@@ -3456,13 +3489,13 @@
         <v>1017070</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3510,13 @@
         <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>484</v>
@@ -3492,13 +3525,13 @@
         <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>959</v>
@@ -3507,18 +3540,18 @@
         <v>1025659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3530,13 +3563,13 @@
         <v>5281</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -3545,13 +3578,13 @@
         <v>12733</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3560,19 +3593,19 @@
         <v>18014</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>329</v>
@@ -3581,13 +3614,13 @@
         <v>313284</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>322</v>
@@ -3596,13 +3629,13 @@
         <v>323576</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>651</v>
@@ -3611,13 +3644,13 @@
         <v>636860</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,13 +3665,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -3647,13 +3680,13 @@
         <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>667</v>
@@ -3662,18 +3695,18 @@
         <v>654874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3685,13 +3718,13 @@
         <v>5626</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3700,13 +3733,13 @@
         <v>11210</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -3715,19 +3748,19 @@
         <v>16836</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>348</v>
@@ -3736,13 +3769,13 @@
         <v>364338</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>348</v>
@@ -3751,13 +3784,13 @@
         <v>376073</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>696</v>
@@ -3766,13 +3799,13 @@
         <v>740411</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3820,13 @@
         <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>358</v>
@@ -3802,13 +3835,13 @@
         <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>712</v>
@@ -3817,18 +3850,18 @@
         <v>757247</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3840,13 +3873,13 @@
         <v>2858</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3855,13 +3888,13 @@
         <v>981</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3870,19 +3903,19 @@
         <v>3839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>209</v>
@@ -3891,13 +3924,13 @@
         <v>208363</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H17" s="7">
         <v>222</v>
@@ -3906,13 +3939,13 @@
         <v>217606</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
         <v>431</v>
@@ -3921,13 +3954,13 @@
         <v>425969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3975,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -3957,13 +3990,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -3972,18 +4005,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3995,13 +4028,13 @@
         <v>793</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4010,13 +4043,13 @@
         <v>1287</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4025,19 +4058,19 @@
         <v>2080</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>258</v>
@@ -4046,13 +4079,13 @@
         <v>262330</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="H20" s="7">
         <v>262</v>
@@ -4061,13 +4094,13 @@
         <v>271828</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="M20" s="7">
         <v>520</v>
@@ -4076,13 +4109,13 @@
         <v>534158</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4130,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -4112,13 +4145,13 @@
         <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>522</v>
@@ -4127,18 +4160,18 @@
         <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4150,13 +4183,13 @@
         <v>4676</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -4165,13 +4198,13 @@
         <v>15978</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -4180,19 +4213,19 @@
         <v>20653</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>575</v>
@@ -4201,13 +4234,13 @@
         <v>651882</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="H23" s="7">
         <v>632</v>
@@ -4216,13 +4249,13 @@
         <v>675316</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>1207</v>
@@ -4231,13 +4264,13 @@
         <v>1327199</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4285,13 @@
         <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>646</v>
@@ -4267,13 +4300,13 @@
         <v>691294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1226</v>
@@ -4282,18 +4315,18 @@
         <v>1347852</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4305,13 +4338,13 @@
         <v>5522</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -4320,13 +4353,13 @@
         <v>17618</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -4335,19 +4368,19 @@
         <v>23140</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>745</v>
@@ -4356,13 +4389,13 @@
         <v>773061</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="H26" s="7">
         <v>739</v>
@@ -4371,13 +4404,13 @@
         <v>808549</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="M26" s="7">
         <v>1484</v>
@@ -4386,13 +4419,13 @@
         <v>1581610</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4440,13 @@
         <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -4422,13 +4455,13 @@
         <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1505</v>
@@ -4437,13 +4470,13 @@
         <v>1604750</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4493,13 @@
         <v>29734</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="H28" s="7">
         <v>63</v>
@@ -4475,13 +4508,13 @@
         <v>71150</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="M28" s="7">
         <v>94</v>
@@ -4490,19 +4523,19 @@
         <v>100884</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3200</v>
@@ -4511,13 +4544,13 @@
         <v>3364616</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="H29" s="7">
         <v>3275</v>
@@ -4526,13 +4559,13 @@
         <v>3473392</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>267</v>
+        <v>84</v>
       </c>
       <c r="M29" s="7">
         <v>6475</v>
@@ -4541,13 +4574,13 @@
         <v>6838008</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4595,13 @@
         <v>3394350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3338</v>
@@ -4577,13 +4610,13 @@
         <v>3544542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6569</v>
@@ -4592,18 +4625,18 @@
         <v>6938892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4627,7 +4660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD21FCE2-9488-440A-90B8-C0AAFC36EE6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7829D4B7-8CD1-4B75-AB55-3EC59A8EBC2C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4644,7 +4677,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4748,97 +4781,97 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>2431</v>
+        <v>2687</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>71</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>3453</v>
+        <v>3539</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
       </c>
       <c r="N4" s="7">
-        <v>5884</v>
+        <v>6227</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>198</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>327</v>
       </c>
       <c r="D5" s="7">
-        <v>257867</v>
+        <v>308756</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="H5" s="7">
         <v>530</v>
       </c>
       <c r="I5" s="7">
-        <v>267950</v>
+        <v>286096</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="M5" s="7">
         <v>857</v>
       </c>
       <c r="N5" s="7">
-        <v>525816</v>
+        <v>594850</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>101</v>
+        <v>289</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,51 +4883,51 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4903,97 +4936,97 @@
         <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>10862</v>
+        <v>10464</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>8599</v>
+        <v>7994</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
       </c>
       <c r="N7" s="7">
-        <v>19461</v>
+        <v>18457</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>294</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>283</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>371</v>
       </c>
       <c r="D8" s="7">
-        <v>506424</v>
+        <v>506065</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>243</v>
       </c>
       <c r="H8" s="7">
         <v>704</v>
       </c>
       <c r="I8" s="7">
-        <v>545242</v>
+        <v>506297</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>1075</v>
       </c>
       <c r="N8" s="7">
-        <v>1051665</v>
+        <v>1012362</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>168</v>
+        <v>299</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>287</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,51 +5038,51 @@
         <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>517286</v>
+        <v>516529</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553841</v>
+        <v>514291</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1071126</v>
+        <v>1030819</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5058,97 +5091,97 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>6894</v>
+        <v>6510</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>10109</v>
+        <v>9333</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>304</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
       </c>
       <c r="N10" s="7">
-        <v>17003</v>
+        <v>15843</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>292</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>293</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>350</v>
       </c>
       <c r="D11" s="7">
-        <v>315346</v>
+        <v>309540</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="H11" s="7">
         <v>519</v>
       </c>
       <c r="I11" s="7">
-        <v>363175</v>
+        <v>339795</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>311</v>
       </c>
       <c r="M11" s="7">
         <v>869</v>
       </c>
       <c r="N11" s="7">
-        <v>678521</v>
+        <v>649335</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>299</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,51 +5193,51 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5213,97 +5246,97 @@
         <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>6244</v>
+        <v>5865</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>302</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>11527</v>
+        <v>10746</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
       </c>
       <c r="N13" s="7">
-        <v>17770</v>
+        <v>16611</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>308</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>283</v>
       </c>
       <c r="D14" s="7">
-        <v>315996</v>
+        <v>306692</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>311</v>
+        <v>41</v>
       </c>
       <c r="H14" s="7">
         <v>576</v>
       </c>
       <c r="I14" s="7">
-        <v>417029</v>
+        <v>464972</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="M14" s="7">
         <v>859</v>
       </c>
       <c r="N14" s="7">
-        <v>733026</v>
+        <v>771663</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>317</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,51 +5348,51 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5368,97 +5401,97 @@
         <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>4831</v>
+        <v>4372</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>319</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
       </c>
       <c r="I16" s="7">
-        <v>8094</v>
+        <v>7438</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
       </c>
       <c r="N16" s="7">
-        <v>12925</v>
+        <v>11810</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>318</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>271</v>
       </c>
       <c r="D17" s="7">
-        <v>191917</v>
+        <v>174370</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>327</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
         <v>470</v>
       </c>
       <c r="I17" s="7">
-        <v>222978</v>
+        <v>200449</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M17" s="7">
         <v>741</v>
       </c>
       <c r="N17" s="7">
-        <v>414895</v>
+        <v>374819</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>324</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,51 +5503,51 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>490</v>
       </c>
       <c r="I18" s="7">
-        <v>231072</v>
+        <v>207887</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>769</v>
       </c>
       <c r="N18" s="7">
-        <v>427820</v>
+        <v>386629</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5523,97 +5556,97 @@
         <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>8219</v>
+        <v>7846</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>333</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>6091</v>
+        <v>5618</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>203</v>
+        <v>339</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
       </c>
       <c r="N19" s="7">
-        <v>14309</v>
+        <v>13464</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>56</v>
+        <v>342</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>356</v>
       </c>
       <c r="D20" s="7">
-        <v>269004</v>
+        <v>261790</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>447</v>
       </c>
       <c r="I20" s="7">
-        <v>268814</v>
+        <v>250769</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>212</v>
+        <v>345</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="M20" s="7">
         <v>803</v>
       </c>
       <c r="N20" s="7">
-        <v>537818</v>
+        <v>512559</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>65</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,51 +5658,51 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274905</v>
+        <v>256387</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552127</v>
+        <v>526023</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5678,97 +5711,97 @@
         <v>20</v>
       </c>
       <c r="D22" s="7">
-        <v>17542</v>
+        <v>16717</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>350</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
       </c>
       <c r="I22" s="7">
-        <v>11388</v>
+        <v>10638</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>342</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
       </c>
       <c r="N22" s="7">
-        <v>28930</v>
+        <v>27355</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>346</v>
+        <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>574</v>
       </c>
       <c r="D23" s="7">
-        <v>606096</v>
+        <v>603685</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>357</v>
       </c>
       <c r="H23" s="7">
         <v>937</v>
       </c>
       <c r="I23" s="7">
-        <v>789840</v>
+        <v>835948</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>350</v>
+        <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>351</v>
+        <v>27</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M23" s="7">
         <v>1511</v>
       </c>
       <c r="N23" s="7">
-        <v>1395936</v>
+        <v>1439632</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>355</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,51 +5813,51 @@
         <v>594</v>
       </c>
       <c r="D24" s="7">
-        <v>623638</v>
+        <v>620402</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>955</v>
       </c>
       <c r="I24" s="7">
-        <v>801228</v>
+        <v>846586</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1549</v>
       </c>
       <c r="N24" s="7">
-        <v>1424866</v>
+        <v>1466987</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5833,97 +5866,97 @@
         <v>20</v>
       </c>
       <c r="D25" s="7">
-        <v>16953</v>
+        <v>14416</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
       </c>
       <c r="I25" s="7">
-        <v>26818</v>
+        <v>22634</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>358</v>
+        <v>216</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>291</v>
+        <v>363</v>
       </c>
       <c r="M25" s="7">
         <v>58</v>
       </c>
       <c r="N25" s="7">
-        <v>43771</v>
+        <v>37050</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>741</v>
       </c>
       <c r="D26" s="7">
-        <v>841770</v>
+        <v>913684</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H26" s="7">
         <v>1023</v>
       </c>
       <c r="I26" s="7">
-        <v>838854</v>
+        <v>692758</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>363</v>
+        <v>224</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>367</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M26" s="7">
         <v>1764</v>
       </c>
       <c r="N26" s="7">
-        <v>1680624</v>
+        <v>1606442</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,46 +5968,46 @@
         <v>761</v>
       </c>
       <c r="D27" s="7">
-        <v>858723</v>
+        <v>928100</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724395</v>
+        <v>1643492</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,97 +6021,97 @@
         <v>95</v>
       </c>
       <c r="D28" s="7">
-        <v>73975</v>
+        <v>68877</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>366</v>
+        <v>254</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="H28" s="7">
         <v>148</v>
       </c>
       <c r="I28" s="7">
-        <v>86078</v>
+        <v>77940</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>367</v>
+        <v>265</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M28" s="7">
         <v>243</v>
       </c>
       <c r="N28" s="7">
-        <v>160053</v>
+        <v>146817</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>274</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3273</v>
       </c>
       <c r="D29" s="7">
-        <v>3304419</v>
+        <v>3384581</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>372</v>
+        <v>259</v>
       </c>
       <c r="H29" s="7">
         <v>5206</v>
       </c>
       <c r="I29" s="7">
-        <v>3713882</v>
+        <v>3577082</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>373</v>
+        <v>271</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M29" s="7">
         <v>8479</v>
       </c>
       <c r="N29" s="7">
-        <v>7018302</v>
+        <v>6961663</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>278</v>
+        <v>381</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6090,51 +6123,51 @@
         <v>3368</v>
       </c>
       <c r="D30" s="7">
-        <v>3378394</v>
+        <v>3453458</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>5354</v>
       </c>
       <c r="I30" s="7">
-        <v>3799960</v>
+        <v>3655022</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>8722</v>
       </c>
       <c r="N30" s="7">
-        <v>7178355</v>
+        <v>7108480</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
